--- a/classfiers/bloated/randomForest/bloated-randomForest-results.xlsx
+++ b/classfiers/bloated/randomForest/bloated-randomForest-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996503496503496</v>
+        <v>0.9990954319312528</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.8819810326659642</v>
+        <v>0.871875</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8866666666666667</v>
+        <v>0.7827586206896552</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8153846153846155</v>
+        <v>0.7984848484848486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7662635658914729</v>
+        <v>0.6716519253104619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9763262764632626</v>
+        <v>0.9741940863862506</v>
       </c>
     </row>
   </sheetData>
